--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H2">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.22129312467014</v>
+        <v>2.683873666666667</v>
       </c>
       <c r="N2">
-        <v>1.22129312467014</v>
+        <v>8.051621000000001</v>
       </c>
       <c r="O2">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="P2">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="Q2">
-        <v>72.44362475359279</v>
+        <v>183.5578549872407</v>
       </c>
       <c r="R2">
-        <v>72.44362475359279</v>
+        <v>1652.020694885166</v>
       </c>
       <c r="S2">
-        <v>0.2119955352200995</v>
+        <v>0.2681630397959692</v>
       </c>
       <c r="T2">
-        <v>0.2119955352200995</v>
+        <v>0.2681630397959691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H3">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.277292635919603</v>
+        <v>0.5528256666666667</v>
       </c>
       <c r="N3">
-        <v>0.277292635919603</v>
+        <v>1.658477</v>
       </c>
       <c r="O3">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="P3">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="Q3">
-        <v>16.44820826197638</v>
+        <v>37.80934058690467</v>
       </c>
       <c r="R3">
-        <v>16.44820826197638</v>
+        <v>340.284065282142</v>
       </c>
       <c r="S3">
-        <v>0.04813324465430496</v>
+        <v>0.05523635970343109</v>
       </c>
       <c r="T3">
-        <v>0.04813324465430496</v>
+        <v>0.05523635970343108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H4">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.569037715518247</v>
+        <v>0.5834963333333333</v>
       </c>
       <c r="N4">
-        <v>0.569037715518247</v>
+        <v>1.750489</v>
       </c>
       <c r="O4">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504545</v>
       </c>
       <c r="P4">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504546</v>
       </c>
       <c r="Q4">
-        <v>33.75369426138345</v>
+        <v>39.90699587309933</v>
       </c>
       <c r="R4">
-        <v>33.75369426138345</v>
+        <v>359.1629628578939</v>
       </c>
       <c r="S4">
-        <v>0.098775185600341</v>
+        <v>0.05830086281624609</v>
       </c>
       <c r="T4">
-        <v>0.098775185600341</v>
+        <v>0.05830086281624609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22129312467014</v>
+        <v>2.683873666666667</v>
       </c>
       <c r="N5">
-        <v>1.22129312467014</v>
+        <v>8.051621000000001</v>
       </c>
       <c r="O5">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="P5">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="Q5">
-        <v>73.36400964978195</v>
+        <v>161.5846869467619</v>
       </c>
       <c r="R5">
-        <v>73.36400964978195</v>
+        <v>1454.262182520857</v>
       </c>
       <c r="S5">
-        <v>0.214688905262526</v>
+        <v>0.2360620352593231</v>
       </c>
       <c r="T5">
-        <v>0.214688905262526</v>
+        <v>0.2360620352593231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.277292635919603</v>
+        <v>0.5528256666666667</v>
       </c>
       <c r="N6">
-        <v>0.277292635919603</v>
+        <v>1.658477</v>
       </c>
       <c r="O6">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="P6">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="Q6">
-        <v>16.65718016951399</v>
+        <v>33.28329622735656</v>
       </c>
       <c r="R6">
-        <v>16.65718016951399</v>
+        <v>299.549666046209</v>
       </c>
       <c r="S6">
-        <v>0.04874476998224216</v>
+        <v>0.04862417841708849</v>
       </c>
       <c r="T6">
-        <v>0.04874476998224216</v>
+        <v>0.04862417841708849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.569037715518247</v>
+        <v>0.5834963333333333</v>
       </c>
       <c r="N7">
-        <v>0.569037715518247</v>
+        <v>1.750489</v>
       </c>
       <c r="O7">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504545</v>
       </c>
       <c r="P7">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504546</v>
       </c>
       <c r="Q7">
-        <v>34.18252965572536</v>
+        <v>35.12984740200145</v>
       </c>
       <c r="R7">
-        <v>34.18252965572536</v>
+        <v>316.168626618013</v>
       </c>
       <c r="S7">
-        <v>0.1000301088493371</v>
+        <v>0.05132183892399521</v>
       </c>
       <c r="T7">
-        <v>0.1000301088493371</v>
+        <v>0.05132183892399522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H8">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.22129312467014</v>
+        <v>2.683873666666667</v>
       </c>
       <c r="N8">
-        <v>1.22129312467014</v>
+        <v>8.051621000000001</v>
       </c>
       <c r="O8">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="P8">
-        <v>0.5906748200446302</v>
+        <v>0.7025487437947114</v>
       </c>
       <c r="Q8">
-        <v>56.03918737182334</v>
+        <v>135.7527392839281</v>
       </c>
       <c r="R8">
-        <v>56.03918737182334</v>
+        <v>1221.774653555353</v>
       </c>
       <c r="S8">
-        <v>0.1639903795620048</v>
+        <v>0.1983236687394191</v>
       </c>
       <c r="T8">
-        <v>0.1639903795620048</v>
+        <v>0.1983236687394191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H9">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.277292635919603</v>
+        <v>0.5528256666666667</v>
       </c>
       <c r="N9">
-        <v>0.277292635919603</v>
+        <v>1.658477</v>
       </c>
       <c r="O9">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="P9">
-        <v>0.1341117660559588</v>
+        <v>0.1447113485548341</v>
       </c>
       <c r="Q9">
-        <v>12.72360718916061</v>
+        <v>27.96241847317344</v>
       </c>
       <c r="R9">
-        <v>12.72360718916061</v>
+        <v>251.661766258561</v>
       </c>
       <c r="S9">
-        <v>0.03723375141941163</v>
+        <v>0.04085081043431447</v>
       </c>
       <c r="T9">
-        <v>0.03723375141941163</v>
+        <v>0.04085081043431447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H10">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.569037715518247</v>
+        <v>0.5834963333333333</v>
       </c>
       <c r="N10">
-        <v>0.569037715518247</v>
+        <v>1.750489</v>
       </c>
       <c r="O10">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504545</v>
       </c>
       <c r="P10">
-        <v>0.2752134138994109</v>
+        <v>0.1527399076504546</v>
       </c>
       <c r="Q10">
-        <v>26.11036655935823</v>
+        <v>29.51376832520855</v>
       </c>
       <c r="R10">
-        <v>26.11036655935823</v>
+        <v>265.623914926877</v>
       </c>
       <c r="S10">
-        <v>0.07640811944973276</v>
+        <v>0.04311720591021322</v>
       </c>
       <c r="T10">
-        <v>0.07640811944973276</v>
+        <v>0.04311720591021323</v>
       </c>
     </row>
   </sheetData>
